--- a/VocabBook.xlsx
+++ b/VocabBook.xlsx
@@ -668,6 +668,9 @@
       <c r="D2" t="n">
         <v>7</v>
       </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -688,6 +691,9 @@
       <c r="D3" t="n">
         <v>3</v>
       </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -708,6 +714,9 @@
       <c r="D4" t="n">
         <v>3</v>
       </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -728,6 +737,9 @@
       <c r="D5" t="n">
         <v>5</v>
       </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -748,6 +760,9 @@
       <c r="D6" t="n">
         <v>7</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -768,6 +783,9 @@
       <c r="D7" t="n">
         <v>3</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -788,6 +806,9 @@
       <c r="D8" t="n">
         <v>6</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -808,6 +829,9 @@
       <c r="D9" t="n">
         <v>5</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -828,6 +852,9 @@
       <c r="D10" t="n">
         <v>6</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -846,7 +873,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -868,6 +898,9 @@
       <c r="D12" t="n">
         <v>6</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -888,6 +921,9 @@
       <c r="D13" t="n">
         <v>6</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -908,6 +944,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -928,6 +967,9 @@
       <c r="D15" t="n">
         <v>6</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -948,6 +990,9 @@
       <c r="D16" t="n">
         <v>5</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -968,6 +1013,9 @@
       <c r="D17" t="n">
         <v>6</v>
       </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -988,6 +1036,9 @@
       <c r="D18" t="n">
         <v>2</v>
       </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1008,6 +1059,9 @@
       <c r="D19" t="n">
         <v>-2</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1026,7 +1080,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1048,6 +1105,9 @@
       <c r="D21" t="n">
         <v>5</v>
       </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1068,6 +1128,9 @@
       <c r="D22" t="n">
         <v>5</v>
       </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1088,6 +1151,9 @@
       <c r="D23" t="n">
         <v>-2</v>
       </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1108,6 +1174,9 @@
       <c r="D24" t="n">
         <v>5</v>
       </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1128,6 +1197,9 @@
       <c r="D25" t="n">
         <v>5</v>
       </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1148,6 +1220,9 @@
       <c r="D26" t="n">
         <v>5</v>
       </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1168,6 +1243,9 @@
       <c r="D27" t="n">
         <v>4</v>
       </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1188,6 +1266,9 @@
       <c r="D28" t="n">
         <v>5</v>
       </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1208,6 +1289,9 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1228,6 +1312,9 @@
       <c r="D30" t="n">
         <v>5</v>
       </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1248,6 +1335,9 @@
       <c r="D31" t="n">
         <v>1</v>
       </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1268,6 +1358,9 @@
       <c r="D32" t="n">
         <v>7</v>
       </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1288,6 +1381,9 @@
       <c r="D33" t="n">
         <v>6</v>
       </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1308,6 +1404,9 @@
       <c r="D34" t="n">
         <v>5</v>
       </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1328,6 +1427,9 @@
       <c r="D35" t="n">
         <v>3</v>
       </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1348,6 +1450,9 @@
       <c r="D36" t="n">
         <v>2</v>
       </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1368,6 +1473,9 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1388,6 +1496,9 @@
       <c r="D38" t="n">
         <v>2</v>
       </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1408,6 +1519,9 @@
       <c r="D39" t="n">
         <v>4</v>
       </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1428,6 +1542,9 @@
       <c r="D40" t="n">
         <v>6</v>
       </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1448,6 +1565,9 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1468,6 +1588,9 @@
       <c r="D42" t="n">
         <v>4</v>
       </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1488,6 +1611,9 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1508,6 +1634,9 @@
       <c r="D44" t="n">
         <v>2</v>
       </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1528,6 +1657,9 @@
       <c r="D45" t="n">
         <v>5</v>
       </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1548,6 +1680,9 @@
       <c r="D46" t="n">
         <v>5</v>
       </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1568,6 +1703,9 @@
       <c r="D47" t="n">
         <v>2</v>
       </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1588,6 +1726,9 @@
       <c r="D48" t="n">
         <v>4</v>
       </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1608,6 +1749,9 @@
       <c r="D49" t="n">
         <v>2</v>
       </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1628,6 +1772,9 @@
       <c r="D50" t="n">
         <v>4</v>
       </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1648,6 +1795,9 @@
       <c r="D51" t="n">
         <v>1</v>
       </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1668,6 +1818,9 @@
       <c r="D52" t="n">
         <v>4</v>
       </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1688,6 +1841,9 @@
       <c r="D53" t="n">
         <v>-1</v>
       </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1708,6 +1864,9 @@
       <c r="D54" t="n">
         <v>5</v>
       </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1728,6 +1887,9 @@
       <c r="D55" t="n">
         <v>0</v>
       </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1748,6 +1910,9 @@
       <c r="D56" t="n">
         <v>-1</v>
       </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1768,6 +1933,9 @@
       <c r="D57" t="n">
         <v>1</v>
       </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1788,6 +1956,9 @@
       <c r="D58" t="n">
         <v>4</v>
       </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1808,6 +1979,9 @@
       <c r="D59" t="n">
         <v>4</v>
       </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1828,6 +2002,9 @@
       <c r="D60" t="n">
         <v>2</v>
       </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1848,6 +2025,9 @@
       <c r="D61" t="n">
         <v>1</v>
       </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1868,6 +2048,9 @@
       <c r="D62" t="n">
         <v>-1</v>
       </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1888,6 +2071,9 @@
       <c r="D63" t="n">
         <v>1</v>
       </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1908,6 +2094,9 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1928,6 +2117,9 @@
       <c r="D65" t="n">
         <v>0</v>
       </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1948,6 +2140,9 @@
       <c r="D66" t="n">
         <v>2</v>
       </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1968,6 +2163,9 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1988,6 +2186,9 @@
       <c r="D68" t="n">
         <v>2</v>
       </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2008,6 +2209,9 @@
       <c r="D69" t="n">
         <v>4</v>
       </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2028,6 +2232,9 @@
       <c r="D70" t="n">
         <v>2</v>
       </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2048,6 +2255,9 @@
       <c r="D71" t="n">
         <v>5</v>
       </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2068,6 +2278,9 @@
       <c r="D72" t="n">
         <v>3</v>
       </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2088,6 +2301,9 @@
       <c r="D73" t="n">
         <v>3</v>
       </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2108,6 +2324,9 @@
       <c r="D74" t="n">
         <v>3</v>
       </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2128,6 +2347,9 @@
       <c r="D75" t="n">
         <v>-3</v>
       </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2148,6 +2370,9 @@
       <c r="D76" t="n">
         <v>3</v>
       </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2168,6 +2393,9 @@
       <c r="D77" t="n">
         <v>2</v>
       </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2188,6 +2416,9 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2208,6 +2439,9 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2228,6 +2462,9 @@
       <c r="D80" t="n">
         <v>-1</v>
       </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2248,6 +2485,9 @@
       <c r="D81" t="n">
         <v>-2</v>
       </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2268,6 +2508,9 @@
       <c r="D82" t="n">
         <v>2</v>
       </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2288,6 +2531,9 @@
       <c r="D83" t="n">
         <v>-2</v>
       </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2308,6 +2554,9 @@
       <c r="D84" t="n">
         <v>1</v>
       </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2328,6 +2577,9 @@
       <c r="D85" t="n">
         <v>0</v>
       </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2348,6 +2600,9 @@
       <c r="D86" t="n">
         <v>1</v>
       </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2368,6 +2623,9 @@
       <c r="D87" t="n">
         <v>2</v>
       </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2388,6 +2646,9 @@
       <c r="D88" t="n">
         <v>0</v>
       </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2408,6 +2669,9 @@
       <c r="D89" t="n">
         <v>5</v>
       </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2428,6 +2692,9 @@
       <c r="D90" t="n">
         <v>2</v>
       </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2448,6 +2715,9 @@
       <c r="D91" t="n">
         <v>-1</v>
       </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2468,6 +2738,9 @@
       <c r="D92" t="n">
         <v>5</v>
       </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2488,6 +2761,9 @@
       <c r="D93" t="n">
         <v>0</v>
       </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2508,6 +2784,9 @@
       <c r="D94" t="n">
         <v>0</v>
       </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2528,6 +2807,9 @@
       <c r="D95" t="n">
         <v>3</v>
       </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2548,6 +2830,9 @@
       <c r="D96" t="n">
         <v>2</v>
       </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2568,6 +2853,9 @@
       <c r="D97" t="n">
         <v>0</v>
       </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2588,6 +2876,9 @@
       <c r="D98" t="n">
         <v>0</v>
       </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2608,6 +2899,9 @@
       <c r="D99" t="n">
         <v>0</v>
       </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2628,6 +2922,9 @@
       <c r="D100" t="n">
         <v>0</v>
       </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2648,6 +2945,9 @@
       <c r="D101" t="n">
         <v>3</v>
       </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2668,6 +2968,9 @@
       <c r="D102" t="n">
         <v>3</v>
       </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2688,6 +2991,9 @@
       <c r="D103" t="n">
         <v>0</v>
       </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2708,6 +3014,9 @@
       <c r="D104" t="n">
         <v>1</v>
       </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2728,6 +3037,9 @@
       <c r="D105" t="n">
         <v>1</v>
       </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2748,6 +3060,9 @@
       <c r="D106" t="n">
         <v>4</v>
       </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2768,6 +3083,9 @@
       <c r="D107" t="n">
         <v>2</v>
       </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2788,6 +3106,9 @@
       <c r="D108" t="n">
         <v>2</v>
       </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2808,6 +3129,9 @@
       <c r="D109" t="n">
         <v>1</v>
       </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2828,6 +3152,9 @@
       <c r="D110" t="n">
         <v>0</v>
       </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2846,7 +3173,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2868,6 +3198,9 @@
       <c r="D112" t="n">
         <v>2</v>
       </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2888,6 +3221,9 @@
       <c r="D113" t="n">
         <v>0</v>
       </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2908,6 +3244,9 @@
       <c r="D114" t="n">
         <v>2</v>
       </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2928,6 +3267,9 @@
       <c r="D115" t="n">
         <v>1</v>
       </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2948,6 +3290,9 @@
       <c r="D116" t="n">
         <v>2</v>
       </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2968,6 +3313,9 @@
       <c r="D117" t="n">
         <v>-1</v>
       </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2988,6 +3336,9 @@
       <c r="D118" t="n">
         <v>3</v>
       </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3008,6 +3359,9 @@
       <c r="D119" t="n">
         <v>1</v>
       </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3028,6 +3382,9 @@
       <c r="D120" t="n">
         <v>3</v>
       </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3048,6 +3405,9 @@
       <c r="D121" t="n">
         <v>0</v>
       </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3068,6 +3428,9 @@
       <c r="D122" t="n">
         <v>2</v>
       </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3088,6 +3451,9 @@
       <c r="D123" t="n">
         <v>-1</v>
       </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3108,6 +3474,9 @@
       <c r="D124" t="n">
         <v>0</v>
       </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3126,7 +3495,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3148,6 +3520,9 @@
       <c r="D126" t="n">
         <v>0</v>
       </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3168,6 +3543,9 @@
       <c r="D127" t="n">
         <v>2</v>
       </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3188,6 +3566,9 @@
       <c r="D128" t="n">
         <v>1</v>
       </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3208,6 +3589,9 @@
       <c r="D129" t="n">
         <v>0</v>
       </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3228,6 +3612,9 @@
       <c r="D130" t="n">
         <v>-2</v>
       </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3246,7 +3633,10 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3268,6 +3658,9 @@
       <c r="D132" t="n">
         <v>0</v>
       </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3288,6 +3681,9 @@
       <c r="D133" t="n">
         <v>0</v>
       </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3308,6 +3704,9 @@
       <c r="D134" t="n">
         <v>0</v>
       </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3328,6 +3727,9 @@
       <c r="D135" t="n">
         <v>0</v>
       </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3348,6 +3750,9 @@
       <c r="D136" t="n">
         <v>0</v>
       </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3368,6 +3773,9 @@
       <c r="D137" t="n">
         <v>1</v>
       </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3388,6 +3796,9 @@
       <c r="D138" t="n">
         <v>2</v>
       </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3408,6 +3819,9 @@
       <c r="D139" t="n">
         <v>1</v>
       </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3428,6 +3842,9 @@
       <c r="D140" t="n">
         <v>0</v>
       </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3448,6 +3865,9 @@
       <c r="D141" t="n">
         <v>0</v>
       </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3466,7 +3886,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-1</v>
+        <v>-2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3488,6 +3911,9 @@
       <c r="D143" t="n">
         <v>1</v>
       </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3508,6 +3934,9 @@
       <c r="D144" t="n">
         <v>0</v>
       </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3528,6 +3957,9 @@
       <c r="D145" t="n">
         <v>0</v>
       </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3548,6 +3980,9 @@
       <c r="D146" t="n">
         <v>1</v>
       </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3568,6 +4003,9 @@
       <c r="D147" t="n">
         <v>1</v>
       </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3588,6 +4026,9 @@
       <c r="D148" t="n">
         <v>0</v>
       </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3608,25 +4049,26 @@
       <c r="D149" t="n">
         <v>1</v>
       </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E149"/>
-  <conditionalFormatting sqref="A802:C1931 C76:C131 A76:A131 A145:A149 A151:A801 A139 C145:C149 C151:C801 C139">
+  <conditionalFormatting sqref="A76:A131 A139 A145:A149 A151:A801 A802:C1931 C76:C131 C139 C145:C149 C151:C801">
     <cfRule type="duplicateValues" priority="28" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 E1 C1">
+  <conditionalFormatting sqref="A1 C1 E1">
     <cfRule type="duplicateValues" priority="19" dxfId="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1 A1 C1">
     <cfRule type="duplicateValues" priority="18" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:A131 A145:A149 A151:A781 A139">
+  <conditionalFormatting sqref="A76:A131 A139 A145:A149 A151:A781">
     <cfRule type="duplicateValues" priority="8" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C44 A33:A44">
+  <conditionalFormatting sqref="A33:A44 C33:C44">
     <cfRule type="duplicateValues" priority="7" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C75 A33:A75">
+  <conditionalFormatting sqref="A33:A75 C33:C75">
     <cfRule type="duplicateValues" priority="6" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A19 C2:C19">
@@ -3639,7 +4081,7 @@
   <conditionalFormatting sqref="A2:A75">
     <cfRule type="duplicateValues" priority="2" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A742 A2:A149">
+  <conditionalFormatting sqref="A2:A149 A151:A742">
     <cfRule type="duplicateValues" priority="1" dxfId="0"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
